--- a/database/Cinemas.xlsx
+++ b/database/Cinemas.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>D01</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>XXOXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOXXOOOOOOOOOOOOOXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>OOOXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>OOOXXOOOOOXXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>XXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>OOOXXOOOOOXXXOOOOOOOXXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>XXXOOOOOOOXXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>XXOXOOOOOOXXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOXXOOOOOOOOOOOOOXXOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
   </si>
 </sst>
 </file>
@@ -522,7 +540,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -606,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
